--- a/Data_Origin/CharacterSkillData.xlsx
+++ b/Data_Origin/CharacterSkillData.xlsx
@@ -1,25 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\madoka_BAW\Data_Origin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="なし" sheetId="1" r:id="rId1"/>
-    <sheet name="選択肢" sheetId="4" r:id="rId2"/>
+    <sheet name="madoka" sheetId="5" r:id="rId2"/>
+    <sheet name="sayaka" sheetId="6" r:id="rId3"/>
+    <sheet name="homura_g" sheetId="7" r:id="rId4"/>
+    <sheet name="mami" sheetId="8" r:id="rId5"/>
+    <sheet name="kyoko" sheetId="9" r:id="rId6"/>
+    <sheet name="yuma" sheetId="10" r:id="rId7"/>
+    <sheet name="選択肢" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="HitType">選択肢!$B$2:$B$7</definedName>
-    <definedName name="SkillType">選択肢!$A$2:$A$74</definedName>
+    <definedName name="SkillType">選択肢!$A$2:$A$79</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="209">
   <si>
     <t>SkillType</t>
     <phoneticPr fontId="1"/>
@@ -321,13 +333,633 @@
   <si>
     <t>RESUSCITATION</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>WEAPON_ZERO</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジカルアロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スプレッドアロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スターライトアロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>癒しの光</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ReloadType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マジカルスタッフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WRESTLE_4</t>
+  </si>
+  <si>
+    <t>救済する白き光</t>
+    <rPh sb="0" eb="2">
+      <t>キュウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シロ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スーパーマジカルスタッフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トゥインクルスタッフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カリスマガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>まどかクラッシャー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スーパーまどかキック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パニエロケット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>急降下まどかキック</t>
+    <rPh sb="0" eb="3">
+      <t>キュウコウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シューティングスティンガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハードエッジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>癒しの調べ</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>シラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>狂想曲</t>
+    <rPh sb="0" eb="3">
+      <t>キョウソウキョク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ADD_ARMOR</t>
+  </si>
+  <si>
+    <t>ADD_ARMOR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハードエッジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AROUSAL_EX_WRESTLE</t>
+  </si>
+  <si>
+    <t>AROUSAL_EX_WRESTLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スティンガー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイフーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイフーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクワルタトーレ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スクワルトリーチェ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ツインブレード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デッドリーレイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スパークエッジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ベレッタ92F</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>89式自動小銃</t>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RPG7</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>FFV-AT4</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディレイグレネード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>時間停止</t>
+    <rPh sb="0" eb="2">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>SUB_SHOT_2</t>
+  </si>
+  <si>
+    <t>SUB_SHOT_2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IT_ALL_TOGETHER</t>
+  </si>
+  <si>
+    <t>ONE_BY_ONE</t>
+  </si>
+  <si>
+    <t>ONE_BY_ONE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MANUAL</t>
+  </si>
+  <si>
+    <t>MANUAL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INTERVAL_ALL</t>
+  </si>
+  <si>
+    <t>INTERVAL_ALL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NOTHING</t>
+  </si>
+  <si>
+    <t>NOTHING</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈍器そして鈍器</t>
+    <rPh sb="0" eb="2">
+      <t>ドンキ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ドンキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リロード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>手榴弾</t>
+    <rPh sb="0" eb="3">
+      <t>シュリュウダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タックル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>危険物第四類</t>
+    <rPh sb="0" eb="3">
+      <t>キケンブツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ヨン</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昇龍拳</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>リュウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天魔空刃脚</t>
+    <rPh sb="0" eb="2">
+      <t>テンマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TIME_STOP</t>
+  </si>
+  <si>
+    <t>TIME_STOP</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIME_DELAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RELOAD</t>
+  </si>
+  <si>
+    <t>RELOAD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ティーロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ティロ・ドッピエッタ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>テ・ポメリアーノ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ティロ・フィナーレ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リプレイザ・ラピッダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ティロ・ボレー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スパーラ・アラ・フィラトゥーラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トッカ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>レガーレ・ヴァスタアーリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ズバッタ・イリ・モスケット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>黄金の美脚</t>
+    <rPh sb="0" eb="2">
+      <t>オウゴン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>キャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インセグリメイント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トッカ・スピラーレ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アイギスの鏡</t>
+    <rPh sb="5" eb="6">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エルツィオーネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メテオーラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>無限の魔弾</t>
+    <rPh sb="0" eb="2">
+      <t>ムゲン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>マダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔弾の舞踏</t>
+    <rPh sb="0" eb="2">
+      <t>マダン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ブトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WRESTLE_5</t>
+  </si>
+  <si>
+    <t>SHOT2</t>
+  </si>
+  <si>
+    <t>SHOT2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RESTRAINT</t>
+  </si>
+  <si>
+    <t>RESTRAINT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MODE_CHANGE</t>
+  </si>
+  <si>
+    <t>MODE_CHANGE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飛槍</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>断罪の磔柱</t>
+    <rPh sb="0" eb="2">
+      <t>ダンザイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハリツケ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハシラ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>最後の審判</t>
+    <rPh sb="0" eb="2">
+      <t>サイゴ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シンパン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロッソ・ファンタズマ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>疾風迅雷</t>
+    <rPh sb="0" eb="4">
+      <t>シップウジンライ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>編込結界</t>
+    <rPh sb="0" eb="2">
+      <t>アミコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鉄砕鞭</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ムチ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>食うかい？</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>突貫</t>
+    <rPh sb="0" eb="2">
+      <t>トッカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>縛鎖結界</t>
+    <rPh sb="0" eb="1">
+      <t>バク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>クサリ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昇天</t>
+    <rPh sb="0" eb="2">
+      <t>ショウテン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔女に与える鉄槌</t>
+    <rPh sb="0" eb="2">
+      <t>マジョ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>テッツイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>AVATAR</t>
+  </si>
+  <si>
+    <t>AVATAR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラウンドウェーブ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スラッシュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクスネイル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リバースエナジー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクススクラブル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>牙突</t>
+    <rPh sb="0" eb="1">
+      <t>ガ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トツ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローリングハンマー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッドバット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヒーリング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクスサイクロン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タッチダウン</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -343,6 +975,12 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -352,10 +990,45 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -366,12 +1039,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -379,6 +1073,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,7 +1127,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -457,9 +1159,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -491,6 +1194,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -666,14 +1370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -681,7 +1385,7 @@
     <col min="4" max="4" width="11.375" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="17.875" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
     <col min="8" max="8" width="11.5" customWidth="1"/>
     <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="9.25" customWidth="1"/>
@@ -692,7 +1396,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -739,436 +1443,6089 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>93</v>
       </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="2">
+  <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2">
-      <formula1>HitType</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B74"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="9.25" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.75" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>50</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>70</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>12</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>2</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>12</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="5">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>12</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="3">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>1</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>50</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>12</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>12</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="3">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>12</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>12</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>70</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>80</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>80</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$8</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>70</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>100</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>15</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="5">
+        <v>70</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>15</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="5">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>15</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="2">
+        <v>70</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>15</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>15</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="2">
+        <v>80</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>15</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D12" s="3">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>70</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>118</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" s="3">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>70</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="2">
+        <v>120</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>70</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="2">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>90</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="2">
+        <v>210</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>90</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A17">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$9</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N17</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O18"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0.3</v>
+      </c>
+      <c r="K2">
+        <v>90</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>140</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>90</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="2">
+        <v>55</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>70</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="2">
+        <v>55</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>70</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5">
+        <v>0</v>
+      </c>
+      <c r="J6" s="5">
+        <v>1</v>
+      </c>
+      <c r="K6" s="5">
+        <v>50</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5">
+        <v>1</v>
+      </c>
+      <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>142</v>
+      </c>
+      <c r="O7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <v>1</v>
+      </c>
+      <c r="I8" s="5">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5">
+        <v>1</v>
+      </c>
+      <c r="K8" s="5">
+        <v>12</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="5">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5">
+        <v>1</v>
+      </c>
+      <c r="K9" s="5">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>2</v>
+      </c>
+      <c r="I12" s="5">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>50</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>1</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="2">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="5">
+        <v>0</v>
+      </c>
+      <c r="J15" s="5">
+        <v>1</v>
+      </c>
+      <c r="K15" s="5">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="D16" s="2">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="5">
+        <v>0</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>70</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D17" s="2">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="5">
+        <v>0</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3</v>
+      </c>
+      <c r="I18" s="5">
+        <v>0</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>80</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A18">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$11</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B10 B12:B18</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B11</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N18</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="2">
+        <v>55</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>90</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="2">
+        <v>55</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>90</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D5" s="2">
+        <v>150</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>50</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>16</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>90</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>90</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="D8" s="2">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>90</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="2">
+        <v>30</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D10" s="2">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D11" s="2">
+        <v>30</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D12" s="2">
+        <v>30</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>60</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D15" s="2">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>12</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="2">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>2</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>12</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D17" s="2">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>90</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D18" s="2">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="5">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>2</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>90</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D19" s="3">
+        <v>80</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <v>16</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7">
+        <v>1</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="7">
+        <v>1</v>
+      </c>
+      <c r="K19" s="7">
+        <v>90</v>
+      </c>
+      <c r="L19" s="7">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7">
+        <v>10</v>
+      </c>
+      <c r="N19" t="s">
+        <v>137</v>
+      </c>
+      <c r="O19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>16</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="7">
+        <v>1</v>
+      </c>
+      <c r="K20" s="5">
+        <v>0</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7">
+        <v>10</v>
+      </c>
+      <c r="N20" t="s">
+        <v>137</v>
+      </c>
+      <c r="O20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D21" s="2">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" s="5">
+        <v>0</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>2</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="7">
+        <v>1</v>
+      </c>
+      <c r="K21" s="5">
+        <v>30</v>
+      </c>
+      <c r="L21" s="7">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7">
+        <v>10</v>
+      </c>
+      <c r="N21" t="s">
+        <v>144</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="5">
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="7">
+        <v>1</v>
+      </c>
+      <c r="K22" s="5">
+        <v>0</v>
+      </c>
+      <c r="L22" s="7">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" t="s">
+        <v>144</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D23" s="2">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>2</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="7">
+        <v>1</v>
+      </c>
+      <c r="K23" s="5">
+        <v>80</v>
+      </c>
+      <c r="L23" s="7">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7">
+        <v>10</v>
+      </c>
+      <c r="N23" t="s">
+        <v>144</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D24" s="2">
+        <v>70</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>2</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="7">
+        <v>1</v>
+      </c>
+      <c r="K24" s="5">
+        <v>80</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>10</v>
+      </c>
+      <c r="N24" t="s">
+        <v>144</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A24">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B16</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$13</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B14 B17:B19 B21:B24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>70</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>90</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D9" s="2">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D10" s="2">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D12" s="2">
+        <v>140</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>12</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="2">
+        <v>140</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>12</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="2">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D15" s="2">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>0</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D17" s="2">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D18" s="2">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7">
+        <v>3</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>80</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C20" s="8"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A24">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B14 B17:B19 B21:B24</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B15:B16</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D4" s="3">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D5" s="3">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="2">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D7" s="2">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D9" s="3">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D10" s="3">
+        <v>55</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="2">
+        <v>55</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D13" s="3">
+        <v>55</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D14" s="3">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="3">
+        <v>150</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C21" s="8"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C22" s="8"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C26" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$12</xm:f>
+          </x14:formula1>
+          <xm:sqref>B16:B17</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$15</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B15 B18:B20 B22:B25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$C$2:$C$6</xm:f>
+          </x14:formula1>
+          <xm:sqref>N2:N25</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>選択肢!$B$2:$B$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>B21</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="32.125" customWidth="1"/>
     <col min="2" max="2" width="26.5" customWidth="1"/>
     <col min="3" max="3" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
-      <c r="A73" t="s">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
-      <c r="A74" t="s">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
         <v>87</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data_Origin/CharacterSkillData.xlsx
+++ b/Data_Origin/CharacterSkillData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\madoka_BAW\Data_Origin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="なし" sheetId="1" r:id="rId1"/>
@@ -19,19 +14,23 @@
     <sheet name="mami" sheetId="8" r:id="rId5"/>
     <sheet name="kyoko" sheetId="9" r:id="rId6"/>
     <sheet name="yuma" sheetId="10" r:id="rId7"/>
-    <sheet name="選択肢" sheetId="4" r:id="rId8"/>
+    <sheet name="kirika" sheetId="11" r:id="rId8"/>
+    <sheet name="oriko" sheetId="12" r:id="rId9"/>
+    <sheet name="sconosciuto" sheetId="13" r:id="rId10"/>
+    <sheet name="選択肢" sheetId="4" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="HitType">選択肢!$B$2:$B$7</definedName>
+    <definedName name="BEND_BACKWARD">選択肢!$B$2:$B$15</definedName>
+    <definedName name="HitType">選択肢!$B$2:$B$16</definedName>
+    <definedName name="ReloadType">選択肢!$C$2:$C$6</definedName>
     <definedName name="SkillType">選択肢!$A$2:$A$79</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="244">
   <si>
     <t>SkillType</t>
     <phoneticPr fontId="1"/>
@@ -954,12 +953,188 @@
     <t>タッチダウン</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>ステッピングファング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ローリングファング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>速度低下</t>
+    <rPh sb="0" eb="2">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バーサーカーファング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サマーソルトキック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイドスラッシュ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飛び蹴り</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ゲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォールファング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バーサークブースト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>踏みつけ</t>
+    <rPh sb="0" eb="1">
+      <t>フ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TIME_DELAY</t>
+  </si>
+  <si>
+    <t>スフィアシュート</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スフィアビット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>バーストスフィア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>平手打ち</t>
+    <rPh sb="0" eb="3">
+      <t>ヒラテウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハードスフィア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サテライトスフィア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイビングヘッドバット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>予知発動</t>
+    <rPh sb="0" eb="2">
+      <t>ヨチ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ソードオラトリア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ダイビングプレス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BOOST_WATCH</t>
+  </si>
+  <si>
+    <t>BOOST_WATCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラーマ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サターニ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ルックス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロターニオネ・カルシットラント
+(Rotatione Calcitrant:回転蹴り）</t>
+    <rPh sb="38" eb="40">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ケ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エルッティオ(Eruptio:噴火)</t>
+    <rPh sb="15" eb="17">
+      <t>フンカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メイティオリーテ
+(Meteorite:隕石）</t>
+    <rPh sb="20" eb="22">
+      <t>インセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フェールムルミヌス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カルシットラーレ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディミドゥム・ルーナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サジッタ・ネント</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1039,7 +1214,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1066,6 +1241,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1127,7 +1308,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1159,10 +1340,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1194,7 +1374,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1370,14 +1549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1396,7 +1575,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1443,7 +1622,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1519,15 +1698,922 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="C2" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="C3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="C4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="C5" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="C6" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="C7" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="C8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="C9" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" ht="27">
+      <c r="C10" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="C11" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" ht="27">
+      <c r="C12" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="C14" s="2"/>
+      <c r="D14" s="3"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="C15" s="2"/>
+      <c r="D15" s="3"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
+      <formula1>HitType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1546,7 +2632,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1593,7 +2679,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1640,7 +2726,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1687,7 +2773,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -1734,7 +2820,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -1781,7 +2867,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -1828,7 +2914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1875,7 +2961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +3008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -2016,7 +3102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -2063,7 +3149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -2110,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -2157,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2204,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2251,7 +3337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -2298,7 +3384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -2375,14 +3461,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -2401,7 +3487,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +3534,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2495,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2542,7 +3628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2589,7 +3675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2636,7 +3722,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2683,7 +3769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2730,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -2777,7 +3863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -2824,7 +3910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -2871,7 +3957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -2918,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2965,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -3012,7 +4098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3059,7 +4145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3106,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3153,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3236,14 +4322,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -3262,7 +4348,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3309,7 +4395,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3356,7 +4442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3403,7 +4489,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3450,7 +4536,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -3497,7 +4583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -3544,7 +4630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -3591,7 +4677,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -3638,7 +4724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -3685,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3732,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -3779,7 +4865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -3826,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -3873,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3920,7 +5006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -3967,7 +5053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -4014,7 +5100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -4061,7 +5147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -4144,14 +5230,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -4170,7 +5256,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4217,7 +5303,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4264,7 +5350,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4311,7 +5397,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4358,7 +5444,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -4405,7 +5491,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -4452,7 +5538,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -4499,7 +5585,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -4546,7 +5632,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -4593,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -4640,7 +5726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -4687,7 +5773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -4734,7 +5820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -4781,7 +5867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -4828,7 +5914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -4875,7 +5961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -4922,7 +6008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -4969,7 +6055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -5016,7 +6102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -5063,7 +6149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -5110,7 +6196,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -5157,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -5204,7 +6290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -5251,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -5340,14 +6426,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -5366,7 +6452,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5413,7 +6499,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5460,7 +6546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5507,7 +6593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5554,7 +6640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5601,7 +6687,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5648,7 +6734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5695,7 +6781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5742,7 +6828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -5789,7 +6875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -5836,7 +6922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -5883,7 +6969,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -5930,7 +7016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -5977,7 +7063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -6024,7 +7110,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -6071,7 +7157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -6118,7 +7204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -6165,7 +7251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -6212,7 +7298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="2"/>
@@ -6224,7 +7310,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
@@ -6236,7 +7322,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="F21" s="5"/>
@@ -6248,7 +7334,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="5"/>
@@ -6260,7 +7346,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -6272,7 +7358,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -6284,7 +7370,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -6329,14 +7415,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -6355,7 +7441,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +7488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6430,12 +7516,26 @@
       <c r="I2" s="7">
         <v>0</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>50</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6463,12 +7563,26 @@
       <c r="I3" s="7">
         <v>0</v>
       </c>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>80</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6496,12 +7610,26 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>80</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -6529,12 +7657,26 @@
       <c r="I5" s="7">
         <v>0</v>
       </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6562,12 +7704,26 @@
       <c r="I6" s="7">
         <v>0</v>
       </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -6595,12 +7751,26 @@
       <c r="I7" s="7">
         <v>0</v>
       </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -6628,12 +7798,26 @@
       <c r="I8" s="7">
         <v>0</v>
       </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6661,12 +7845,26 @@
       <c r="I9" s="7">
         <v>0</v>
       </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6694,12 +7892,26 @@
       <c r="I10" s="7">
         <v>0</v>
       </c>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>12</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6727,12 +7939,26 @@
       <c r="I11" s="7">
         <v>0</v>
       </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>12</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -6760,12 +7986,26 @@
       <c r="I12" s="7">
         <v>0</v>
       </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -6793,12 +8033,26 @@
       <c r="I13" s="7">
         <v>0</v>
       </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -6826,12 +8080,26 @@
       <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -6859,12 +8127,26 @@
       <c r="I15" s="7">
         <v>0</v>
       </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -6892,12 +8174,26 @@
       <c r="I16" s="7">
         <v>0</v>
       </c>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="7"/>
@@ -6909,7 +8205,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="7"/>
@@ -6921,7 +8217,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="7"/>
@@ -6933,7 +8229,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="2"/>
@@ -6945,7 +8241,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
@@ -6957,7 +8253,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="F22" s="5"/>
@@ -6969,7 +8265,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -6981,7 +8277,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -6993,7 +8289,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
@@ -7005,14 +8301,17 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13">
       <c r="C26" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25">
       <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N16">
+      <formula1>ReloadType</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7051,21 +8350,34 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="32.125" customWidth="1"/>
-    <col min="2" max="2" width="26.5" customWidth="1"/>
-    <col min="3" max="3" width="17.625" customWidth="1"/>
+    <col min="1" max="1" width="20.75" customWidth="1"/>
+    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="3" max="3" width="23.5" customWidth="1"/>
+    <col min="4" max="4" width="15.25" customWidth="1"/>
+    <col min="5" max="5" width="19.625" customWidth="1"/>
+    <col min="6" max="6" width="18.375" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="11" max="11" width="12.125" customWidth="1"/>
+    <col min="12" max="12" width="14.625" customWidth="1"/>
+    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="18.875" customWidth="1"/>
+    <col min="15" max="15" width="13.5" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7073,458 +8385,1754 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
       <c r="B2" t="s">
         <v>88</v>
       </c>
-      <c r="C2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C2" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D2" s="3">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>80</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3" s="9">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>80</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+      <c r="E4" s="9">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2">
+        <v>100</v>
+      </c>
+      <c r="G4" s="4">
+        <v>10</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>142</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>30</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="2">
+        <v>40</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D7" s="2">
+        <v>40</v>
+      </c>
+      <c r="E7" s="10">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>30</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8" s="10">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9" s="10">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D10" s="3">
+        <v>60</v>
+      </c>
+      <c r="E10" s="10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>30</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>89</v>
       </c>
-      <c r="C3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>136</v>
-      </c>
-      <c r="B6" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>176</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="C12" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D12" s="3">
+        <v>60</v>
+      </c>
+      <c r="E12" s="10">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>50</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13" s="10">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+        <v>88</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D14" s="2">
+        <v>60</v>
+      </c>
+      <c r="E14" s="10">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A42" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A43" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A44" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A45" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A47" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A49" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A50" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="D15" s="3">
         <v>60</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A52" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A54" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>87</v>
-      </c>
+      <c r="E15" s="10">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>100</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N18">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A27">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28">
+      <formula1>HitType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O29"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>90</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D3" s="2">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>10</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>60</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>80</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D5" s="3">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>10</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D6" s="2">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>10</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>10</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D8" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>5</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>100</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>100</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="3">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>100</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D12" s="2">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>100</v>
+      </c>
+      <c r="G13" s="4">
+        <v>10</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D14" s="3">
+        <v>60</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="D15" s="3">
+        <v>60</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="2"/>
+      <c r="D21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="8"/>
+      <c r="D24" s="2"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="8"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
+      <formula1>HitType</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Data_Origin/CharacterSkillData.xlsx
+++ b/Data_Origin/CharacterSkillData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\madoka_BAW\Data_Origin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="なし" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,10 @@
     <sheet name="kirika" sheetId="11" r:id="rId8"/>
     <sheet name="oriko" sheetId="12" r:id="rId9"/>
     <sheet name="sconosciuto" sheetId="13" r:id="rId10"/>
-    <sheet name="選択肢" sheetId="4" r:id="rId11"/>
+    <sheet name="homura_b" sheetId="14" r:id="rId11"/>
+    <sheet name="u_madoka" sheetId="16" r:id="rId12"/>
+    <sheet name="majyu" sheetId="15" r:id="rId13"/>
+    <sheet name="選択肢" sheetId="4" r:id="rId14"/>
   </sheets>
   <definedNames>
     <definedName name="BEND_BACKWARD">選択肢!$B$2:$B$15</definedName>
@@ -30,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="262">
   <si>
     <t>SkillType</t>
     <phoneticPr fontId="1"/>
@@ -1088,53 +1096,158 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ロターニオネ・カルシットラント
-(Rotatione Calcitrant:回転蹴り）</t>
-    <rPh sb="38" eb="40">
-      <t>カイテン</t>
+    <t>フェールムルミヌス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カルシットラーレ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ディミドゥム・ルーナ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サジッタ・ネント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロターニオネ・カルシットラント</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>エルッティオ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メイティオリーテ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ビッグマジカルアロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アローレイン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マジカルＣＱＣ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>回り込み蹴り</t>
+    <rPh sb="0" eb="1">
+      <t>マワ</t>
     </rPh>
-    <rPh sb="40" eb="41">
+    <rPh sb="2" eb="3">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>ケ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>エルッティオ(Eruptio:噴火)</t>
-    <rPh sb="15" eb="17">
-      <t>フンカ</t>
+    <t>浴びせ蹴り</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>メイティオリーテ
-(Meteorite:隕石）</t>
-    <rPh sb="20" eb="22">
-      <t>インセキ</t>
+    <rPh sb="3" eb="4">
+      <t>ケ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フェールムルミヌス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>カルシットラーレ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ディミドゥム・ルーナ</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サジッタ・ネント</t>
-    <phoneticPr fontId="2"/>
+    <t>天魔空刃脚</t>
+    <rPh sb="0" eb="2">
+      <t>テンマ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヤイバ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トゥインクルアロー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フィニトラ・フィレティア</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>転生の福音</t>
+    <rPh sb="0" eb="2">
+      <t>テンセイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>フクイン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>天上の祈り</t>
+    <rPh sb="0" eb="2">
+      <t>テンジョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イノ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マジカルスタッフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トゥインクルスタッフ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カリスマガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ファイナルまどかクラッシャー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円環の車</t>
+    <rPh sb="0" eb="2">
+      <t>エンカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クルマ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>飛翔</t>
+    <rPh sb="0" eb="2">
+      <t>ヒショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RESUSCITATION</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1308,7 +1421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1340,9 +1453,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1374,6 +1488,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1549,14 +1664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1575,7 +1690,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1622,7 +1737,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1699,14 +1814,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1725,7 +1840,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1772,10 +1887,2574 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>234</v>
       </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>90</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>80</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D4" s="2">
+        <v>10</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>90</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D5" s="3">
+        <v>40</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>15</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>15</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>15</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="D12" s="3">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>100</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="D13" s="3">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="D14" s="3">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D15" s="2">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+      <formula1>HitType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>50</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>70</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="2">
+        <v>60</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>70</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>70</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="3">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="2">
+        <v>40</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>12</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>70</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D14" s="3">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>30</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+      <formula1>HitType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D2" s="2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="2">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" s="2">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>261</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="2">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" s="3">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D8" s="2">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="3">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="3">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="3">
+        <v>60</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="D12" s="3">
+        <v>60</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="D14" s="2">
+        <v>50</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="D15" s="3">
+        <v>150</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>1</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="C32" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+      <formula1>HitType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O32"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="4"/>
@@ -1786,10 +4465,8 @@
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
-    <row r="3" spans="1:15">
-      <c r="C3" s="2" t="s">
-        <v>235</v>
-      </c>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="4"/>
@@ -1800,10 +4477,8 @@
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
     </row>
-    <row r="4" spans="1:15">
-      <c r="C4" s="2" t="s">
-        <v>236</v>
-      </c>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="4"/>
@@ -1814,10 +4489,8 @@
       <c r="L4" s="7"/>
       <c r="M4" s="7"/>
     </row>
-    <row r="5" spans="1:15">
-      <c r="C5" s="8" t="s">
-        <v>240</v>
-      </c>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C5" s="2"/>
       <c r="D5" s="3"/>
       <c r="F5" s="2"/>
       <c r="G5" s="4"/>
@@ -1828,11 +4501,9 @@
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
-    <row r="6" spans="1:15">
-      <c r="C6" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D6" s="2"/>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C6" s="2"/>
+      <c r="D6" s="3"/>
       <c r="F6" s="2"/>
       <c r="G6" s="4"/>
       <c r="H6" s="2"/>
@@ -1842,11 +4513,9 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
     </row>
-    <row r="7" spans="1:15">
-      <c r="C7" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D7" s="2"/>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
       <c r="F7" s="2"/>
       <c r="G7" s="4"/>
       <c r="H7" s="2"/>
@@ -1856,10 +4525,8 @@
       <c r="L7" s="7"/>
       <c r="M7" s="7"/>
     </row>
-    <row r="8" spans="1:15">
-      <c r="C8" s="2" t="s">
-        <v>227</v>
-      </c>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="4"/>
@@ -1870,12 +4537,10 @@
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
     </row>
-    <row r="9" spans="1:15">
-      <c r="C9" s="8" t="s">
-        <v>243</v>
-      </c>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C9" s="2"/>
       <c r="D9" s="3"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="2"/>
       <c r="G9" s="4"/>
       <c r="H9" s="2"/>
       <c r="I9" s="7"/>
@@ -1884,12 +4549,10 @@
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
     </row>
-    <row r="10" spans="1:15" ht="27">
-      <c r="C10" s="8" t="s">
-        <v>237</v>
-      </c>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C10" s="2"/>
       <c r="D10" s="3"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="2"/>
       <c r="G10" s="4"/>
       <c r="H10" s="2"/>
       <c r="I10" s="7"/>
@@ -1898,12 +4561,10 @@
       <c r="L10" s="7"/>
       <c r="M10" s="7"/>
     </row>
-    <row r="11" spans="1:15">
-      <c r="C11" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="F11" s="7"/>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="G11" s="4"/>
       <c r="H11" s="2"/>
       <c r="I11" s="7"/>
@@ -1912,11 +4573,9 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:15" ht="27">
-      <c r="C12" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="D12" s="2"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C12" s="2"/>
+      <c r="D12" s="3"/>
       <c r="F12" s="7"/>
       <c r="G12" s="4"/>
       <c r="H12" s="2"/>
@@ -1926,9 +4585,9 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="D13" s="3"/>
       <c r="F13" s="7"/>
       <c r="G13" s="4"/>
       <c r="H13" s="2"/>
@@ -1938,7 +4597,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="F14" s="7"/>
@@ -1950,7 +4609,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="F15" s="7"/>
@@ -1962,7 +4621,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="7"/>
@@ -1974,7 +4633,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -1986,46 +4645,46 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3"/>
       <c r="F18" s="7"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="7"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3"/>
       <c r="F19" s="7"/>
       <c r="G19" s="4"/>
-      <c r="H19" s="7"/>
+      <c r="H19" s="2"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3"/>
       <c r="F20" s="7"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="7"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="F21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
@@ -2034,46 +4693,46 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="F22" s="2"/>
+      <c r="F22" s="7"/>
       <c r="G22" s="4"/>
-      <c r="H22" s="2"/>
+      <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="5"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="7"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="2"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
-      <c r="K23" s="5"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13">
-      <c r="C24" s="8"/>
-      <c r="D24" s="2"/>
-      <c r="F24" s="5"/>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
       <c r="G24" s="4"/>
-      <c r="H24" s="2"/>
+      <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
-      <c r="K24" s="5"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13">
-      <c r="C25" s="8"/>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="2"/>
       <c r="G25" s="4"/>
       <c r="H25" s="2"/>
       <c r="I25" s="7"/>
@@ -2082,37 +4741,73 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
       <c r="G26" s="4"/>
-      <c r="H26" s="7"/>
+      <c r="H26" s="2"/>
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="5"/>
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13">
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="3:13">
-      <c r="C28" s="2"/>
-    </row>
-    <row r="29" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C27" s="8"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C28" s="8"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="C32" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B15">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
       <formula1>HitType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
       <formula1>SkillType</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
       <formula1>ReloadType</formula1>
     </dataValidation>
   </dataValidations>
@@ -2121,15 +4816,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -2137,7 +4832,7 @@
     <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2148,7 +4843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2159,7 +4854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -2170,7 +4865,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -2181,7 +4876,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -2192,7 +4887,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -2203,7 +4898,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2211,7 +4906,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2219,7 +4914,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2227,7 +4922,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2235,7 +4930,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -2243,7 +4938,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -2251,7 +4946,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -2259,7 +4954,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -2267,7 +4962,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -2275,7 +4970,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -2283,317 +4978,317 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:1">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:1">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:1">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:1">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:1">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:1">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:1">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:1">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:1">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:1">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:1">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:1">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:1">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:1">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:1">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:1">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:1">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:1">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -2606,14 +5301,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="K2" sqref="K2:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -2632,7 +5327,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2679,7 +5374,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2726,7 +5421,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2773,7 +5468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2820,7 +5515,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -2867,7 +5562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -2914,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -2961,7 +5656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3008,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3055,7 +5750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3102,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -3149,7 +5844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -3196,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -3243,7 +5938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -3290,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3337,7 +6032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -3384,7 +6079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -3461,14 +6156,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -3487,7 +6182,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3534,7 +6229,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3581,7 +6276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3628,7 +6323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3675,7 +6370,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3722,7 +6417,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3769,7 +6464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3816,7 +6511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3863,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3910,7 +6605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3957,7 +6652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -4004,7 +6699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -4051,7 +6746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -4098,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -4145,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -4192,7 +6887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -4239,7 +6934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -4322,14 +7017,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O4" sqref="O4"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -4348,7 +7043,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4395,7 +7090,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4442,7 +7137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -4489,7 +7184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -4536,7 +7231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -4583,7 +7278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -4630,7 +7325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4677,7 +7372,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4724,7 +7419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4771,7 +7466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4818,7 +7513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -4865,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -4912,7 +7607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -4959,7 +7654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -5006,7 +7701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -5053,7 +7748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -5100,7 +7795,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -5147,7 +7842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -5230,14 +7925,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -5256,7 +7951,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5303,7 +7998,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5350,7 +8045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5397,7 +8092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5444,7 +8139,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5491,7 +8186,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -5538,7 +8233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -5585,7 +8280,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -5632,7 +8327,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5679,7 +8374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5726,7 +8421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5773,7 +8468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -5820,7 +8515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -5867,7 +8562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -5914,7 +8609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -5961,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -6008,7 +8703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -6055,7 +8750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -6102,7 +8797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -6149,7 +8844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -6196,7 +8891,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -6243,7 +8938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -6290,7 +8985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -6337,7 +9032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -6426,14 +9121,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -6452,7 +9147,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6499,7 +9194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6546,7 +9241,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6593,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6640,7 +9335,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -6687,7 +9382,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6734,7 +9429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -6781,7 +9476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -6828,7 +9523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -6875,7 +9570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -6922,7 +9617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -6969,7 +9664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -7016,7 +9711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7063,7 +9758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -7110,7 +9805,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -7157,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -7204,7 +9899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -7251,7 +9946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -7298,7 +9993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="2"/>
@@ -7310,7 +10005,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
@@ -7322,7 +10017,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="F21" s="5"/>
@@ -7334,7 +10029,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="5"/>
@@ -7346,7 +10041,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -7358,7 +10053,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -7370,7 +10065,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -7415,14 +10110,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -7441,7 +10136,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7488,7 +10183,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7535,7 +10230,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7582,7 +10277,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -7629,7 +10324,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -7676,7 +10371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -7723,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -7770,7 +10465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -7817,7 +10512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -7864,7 +10559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -7911,7 +10606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -7958,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -8005,7 +10700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -8052,7 +10747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -8099,7 +10794,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -8146,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -8193,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="7"/>
@@ -8205,7 +10900,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="7"/>
@@ -8217,7 +10912,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="7"/>
@@ -8229,7 +10924,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="2"/>
@@ -8241,7 +10936,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
@@ -8253,7 +10948,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="F22" s="5"/>
@@ -8265,7 +10960,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -8277,7 +10972,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -8289,7 +10984,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
@@ -8301,7 +10996,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C26" s="2"/>
     </row>
   </sheetData>
@@ -8350,14 +11045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -8377,7 +11072,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8424,7 +11119,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8471,7 +11166,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -8518,7 +11213,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -8565,7 +11260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -8612,7 +11307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -8659,7 +11354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -8706,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -8753,7 +11448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -8800,7 +11495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -8847,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -8894,7 +11589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -8941,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -8988,7 +11683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -9035,7 +11730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -9082,7 +11777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="7"/>
@@ -9094,7 +11789,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -9106,7 +11801,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="F18" s="7"/>
@@ -9118,7 +11813,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="7"/>
@@ -9130,7 +11825,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="7"/>
@@ -9142,7 +11837,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="7"/>
@@ -9154,7 +11849,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="F22" s="2"/>
@@ -9166,7 +11861,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
@@ -9178,7 +11873,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -9190,7 +11885,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
@@ -9202,7 +11897,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -9214,7 +11909,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5"/>
@@ -9226,7 +11921,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C28" s="2"/>
     </row>
   </sheetData>
@@ -9248,14 +11943,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -9274,7 +11969,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9321,7 +12016,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -9368,7 +12063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -9415,7 +12110,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -9462,7 +12157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -9509,7 +12204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -9556,7 +12251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -9603,7 +12298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -9650,7 +12345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -9697,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -9744,7 +12439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -9791,7 +12486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -9838,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -9885,7 +12580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -9932,7 +12627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -9979,7 +12674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="7"/>
@@ -9991,7 +12686,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="3:13">
+    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -10003,7 +12698,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="7"/>
@@ -10015,7 +12710,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="7"/>
@@ -10027,7 +12722,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13">
+    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="7"/>
@@ -10039,7 +12734,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="2"/>
@@ -10051,7 +12746,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
@@ -10063,7 +12758,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13">
+    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -10075,7 +12770,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -10087,7 +12782,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C25" s="8"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
@@ -10099,7 +12794,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13">
+    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -10111,13 +12806,13 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:13">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:13">
+    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
       <c r="C29" s="2"/>
     </row>
   </sheetData>

--- a/Data_Origin/CharacterSkillData.xlsx
+++ b/Data_Origin/CharacterSkillData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\madoka_BAW\Data_Origin\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" activeTab="11"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="22635" windowHeight="9645" firstSheet="2" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="なし" sheetId="1" r:id="rId1"/>
@@ -25,7 +20,11 @@
     <sheet name="homura_b" sheetId="14" r:id="rId11"/>
     <sheet name="u_madoka" sheetId="16" r:id="rId12"/>
     <sheet name="majyu" sheetId="15" r:id="rId13"/>
-    <sheet name="選択肢" sheetId="4" r:id="rId14"/>
+    <sheet name="d_homura" sheetId="17" r:id="rId14"/>
+    <sheet name="nagisa" sheetId="18" r:id="rId15"/>
+    <sheet name="sayaka_g" sheetId="19" r:id="rId16"/>
+    <sheet name="michel" sheetId="20" r:id="rId17"/>
+    <sheet name="選択肢" sheetId="4" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName name="BEND_BACKWARD">選択肢!$B$2:$B$15</definedName>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="306">
   <si>
     <t>SkillType</t>
     <phoneticPr fontId="1"/>
@@ -1242,12 +1241,253 @@
   <si>
     <t>RESUSCITATION</t>
   </si>
+  <si>
+    <t>ハンドレーザー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>格闘</t>
+    <rPh sb="0" eb="2">
+      <t>カクトウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヘッドバッド</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鷹爪脚</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ツメ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>跳び膝蹴り</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヒザ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゲ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>悪魔の羽根</t>
+    <rPh sb="0" eb="2">
+      <t>アクマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円環を砕く円環</t>
+    <rPh sb="0" eb="2">
+      <t>エンカン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>エンカン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>大魔獣</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マジュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>記憶除去</t>
+    <rPh sb="0" eb="2">
+      <t>キオク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョキョ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タックル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>荒れ狂う羽根</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>クル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>WEAPON_ZERO</t>
+  </si>
+  <si>
+    <t>カマンベール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスカルポーネ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴルゴンゾーラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラクレット</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴーダ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ヴァランセ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>モルビエ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リヴァロ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ガローチャ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ロックフォール</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>シューティングエッジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アンソニー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ゴメイサマ・リリアン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>居合抜き</t>
+    <rPh sb="0" eb="2">
+      <t>イアイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヌ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイフーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ツインブレード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔女の楽団</t>
+    <rPh sb="0" eb="2">
+      <t>マジョ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ガクダン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>デッドリーレイズ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スパークエッジ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウィース</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サンクティオ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オディウム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プローディギウム</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>インペトゥス・ウェンティー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ウェントゥス・ニワーリス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロケッラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴェントゥス・プロケッロースス</t>
+  </si>
+  <si>
+    <t>トニトロス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルッティオ</t>
+  </si>
+  <si>
+    <t>メイティオリーテ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1421,7 +1661,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1453,10 +1693,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1488,7 +1727,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1664,14 +1902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1690,7 +1928,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1737,7 +1975,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1814,14 +2052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -1840,7 +2078,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1887,7 +2125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -1934,7 +2172,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1981,7 +2219,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -2028,7 +2266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -2075,7 +2313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -2122,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -2169,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -2216,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -2263,7 +2501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -2310,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -2357,7 +2595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2404,7 +2642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -2451,7 +2689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -2498,7 +2736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2545,7 +2783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="F16" s="7"/>
@@ -2557,7 +2795,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -2569,7 +2807,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="F18" s="7"/>
@@ -2581,7 +2819,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="7"/>
@@ -2593,7 +2831,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="7"/>
@@ -2605,7 +2843,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="7"/>
@@ -2617,7 +2855,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="7"/>
@@ -2629,7 +2867,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="7"/>
@@ -2641,7 +2879,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="F24" s="2"/>
@@ -2653,7 +2891,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
@@ -2665,7 +2903,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -2677,7 +2915,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:13">
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5"/>
@@ -2689,7 +2927,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:13">
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="F28" s="5"/>
@@ -2701,7 +2939,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:13">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="F29" s="5"/>
@@ -2713,13 +2951,13 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:13">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:13">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:13">
       <c r="C32" s="2"/>
     </row>
   </sheetData>
@@ -2741,14 +2979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -2767,7 +3005,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2814,7 +3052,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2861,7 +3099,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -2908,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -2955,7 +3193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3002,7 +3240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3049,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3096,7 +3334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3143,7 +3381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -3190,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -3237,7 +3475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -3284,7 +3522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -3331,7 +3569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -3378,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -3425,7 +3663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3472,7 +3710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>46</v>
       </c>
@@ -3519,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -3531,7 +3769,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="F18" s="7"/>
@@ -3543,7 +3781,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="7"/>
@@ -3555,7 +3793,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="7"/>
@@ -3567,7 +3805,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="7"/>
@@ -3579,7 +3817,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="7"/>
@@ -3591,7 +3829,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="7"/>
@@ -3603,7 +3841,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="F24" s="2"/>
@@ -3615,7 +3853,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
@@ -3627,7 +3865,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -3639,7 +3877,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:13">
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5"/>
@@ -3651,7 +3889,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:13">
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="F28" s="5"/>
@@ -3663,7 +3901,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:13">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="F29" s="5"/>
@@ -3675,13 +3913,13 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:13">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="3:13">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:13">
       <c r="C32" s="2"/>
     </row>
   </sheetData>
@@ -3703,14 +3941,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -3729,7 +3967,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3776,7 +4014,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3795,15 +4033,35 @@
       <c r="F2" s="2">
         <v>10</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>80</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3822,15 +4080,35 @@
       <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>100</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3849,15 +4127,35 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3876,15 +4174,35 @@
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3903,15 +4221,35 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3930,15 +4268,35 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>20</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3957,15 +4315,35 @@
       <c r="F8" s="2">
         <v>0</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3984,15 +4362,35 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>80</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -4011,15 +4409,35 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -4038,15 +4456,35 @@
       <c r="F11" s="2">
         <v>0</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -4065,15 +4503,35 @@
       <c r="F12" s="7">
         <v>0</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -4092,15 +4550,35 @@
       <c r="F13" s="7">
         <v>0</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -4119,15 +4597,35 @@
       <c r="F14" s="7">
         <v>0</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>50</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -4146,15 +4644,35 @@
       <c r="F15" s="7">
         <v>1</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>137</v>
+      </c>
+      <c r="O15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -4173,15 +4691,35 @@
       <c r="F16" s="7">
         <v>0</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -4200,15 +4738,35 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="F18" s="7"/>
@@ -4220,7 +4778,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="7"/>
@@ -4232,7 +4790,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="7"/>
@@ -4244,7 +4802,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="7"/>
@@ -4256,7 +4814,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="7"/>
@@ -4268,7 +4826,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="7"/>
@@ -4280,7 +4838,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="F24" s="2"/>
@@ -4292,7 +4850,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
@@ -4304,7 +4862,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -4316,7 +4874,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5"/>
@@ -4328,7 +4886,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="F28" s="5"/>
@@ -4340,7 +4898,7 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="F29" s="5"/>
@@ -4352,13 +4910,13 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="C32" s="2"/>
     </row>
   </sheetData>
@@ -4380,14 +4938,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -4406,7 +4964,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4453,115 +5011,430 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C5" s="2"/>
-      <c r="D5" s="3"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C6" s="2"/>
-      <c r="D6" s="3"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C7" s="2"/>
-      <c r="D7" s="3"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C9" s="2"/>
-      <c r="D9" s="3"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="C10" s="2"/>
-      <c r="D10" s="3"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>50</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" s="2">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>0</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>12</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="2">
+        <v>30</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>12</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>144</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" s="3">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D6" s="3">
+        <v>40</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>3</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>80</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="D8" s="3">
+        <v>30</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>80</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="3">
+        <v>40</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>3</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>12</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="F11" s="2"/>
@@ -4573,7 +5446,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="7"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="C12" s="2"/>
       <c r="D12" s="3"/>
       <c r="F12" s="7"/>
@@ -4585,7 +5458,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="7"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="C13" s="2"/>
       <c r="D13" s="3"/>
       <c r="F13" s="7"/>
@@ -4597,7 +5470,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="C14" s="2"/>
       <c r="D14" s="3"/>
       <c r="F14" s="7"/>
@@ -4609,7 +5482,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="7"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="C15" s="2"/>
       <c r="D15" s="3"/>
       <c r="F15" s="7"/>
@@ -4621,7 +5494,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="7"/>
@@ -4633,7 +5506,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -4645,7 +5518,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="F18" s="7"/>
@@ -4657,7 +5530,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="7"/>
@@ -4669,7 +5542,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="7"/>
@@ -4681,7 +5554,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="7"/>
@@ -4693,7 +5566,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="7"/>
@@ -4705,7 +5578,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="7"/>
@@ -4717,7 +5590,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
       <c r="F24" s="2"/>
@@ -4729,7 +5602,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="2"/>
@@ -4741,7 +5614,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -4753,8 +5626,8 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C27" s="8"/>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5"/>
       <c r="G27" s="4"/>
@@ -4765,8 +5638,8 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C28" s="8"/>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="F28" s="5"/>
       <c r="G28" s="4"/>
@@ -4777,8 +5650,8 @@
       <c r="L28" s="7"/>
       <c r="M28" s="7"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C29" s="2"/>
+    <row r="29" spans="3:13">
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="F29" s="5"/>
       <c r="G29" s="4"/>
@@ -4789,14 +5662,20 @@
       <c r="L29" s="7"/>
       <c r="M29" s="7"/>
     </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.15">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="30" spans="3:13">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="3:13">
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="32" spans="3:13">
       <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4817,14 +5696,3886 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="2">
+        <v>70</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>80</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="2">
+        <v>80</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>2</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>3</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>80</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="2">
+        <v>80</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>60</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>0</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>142</v>
+      </c>
+      <c r="O5">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D6" s="3">
+        <v>60</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D7" s="3">
+        <v>60</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>20</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="3">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="3">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D10" s="3">
+        <v>45</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>30</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D11" s="3">
+        <v>45</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>30</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>0</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D13" s="3">
+        <v>50</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D14" s="3">
+        <v>120</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>1</v>
+      </c>
+      <c r="H14" s="2">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>100</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>137</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D15" s="3">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="3">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>80</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+      <formula1>HitType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="D2" s="2">
+        <v>40</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>80</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D3" s="2">
+        <v>50</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>60</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="2">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>60</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="2">
+        <v>50</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>15</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>15</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>15</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D8" s="2">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D9" s="2">
+        <v>60</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>50</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>137</v>
+      </c>
+      <c r="O9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="D10" s="3">
+        <v>60</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>50</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>137</v>
+      </c>
+      <c r="O10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>0</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D12" s="2">
+        <v>80</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="2">
+        <v>80</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>1</v>
+      </c>
+      <c r="G13" s="4">
+        <v>1</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>137</v>
+      </c>
+      <c r="O13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="2">
+        <v>70</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>2</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="D15" s="2">
+        <v>70</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>80</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+      <formula1>HitType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="2">
+        <v>60</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>6</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>70</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D3" s="2">
+        <v>70</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>50</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>137</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="D4" s="2">
+        <v>70</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>4</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>70</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D5" s="2">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>144</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6" s="3">
+        <v>70</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>2</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>20</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D8" s="2">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>5</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>30</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D9" s="2">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>2</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>30</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D10" s="2">
+        <v>80</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>2</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>30</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="D11" s="3">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D12" s="2">
+        <v>90</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>1</v>
+      </c>
+      <c r="G12" s="4">
+        <v>1</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D13" s="2">
+        <v>70</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>80</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" s="2">
+        <v>210</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>5</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>10</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>0</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="C16" s="2"/>
+      <c r="D16" s="3"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13">
+      <c r="C17" s="2"/>
+      <c r="D17" s="3"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13">
+      <c r="C18" s="2"/>
+      <c r="D18" s="3"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13">
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="3:13">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="3:13">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+      <formula1>HitType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O34"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" customWidth="1"/>
+    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="3" max="3" width="25.5" customWidth="1"/>
+    <col min="4" max="4" width="11.375" customWidth="1"/>
+    <col min="5" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="16.625" customWidth="1"/>
+    <col min="7" max="7" width="22.25" customWidth="1"/>
+    <col min="8" max="8" width="11.5" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
+    <col min="10" max="10" width="11.5" customWidth="1"/>
+    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="12" max="12" width="12.125" customWidth="1"/>
+    <col min="14" max="14" width="17.5" customWidth="1"/>
+    <col min="15" max="15" width="11.25" customWidth="1"/>
+    <col min="16" max="16" width="10.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D2" s="2">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>18</v>
+      </c>
+      <c r="G2" s="4">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+      <c r="J2" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="K2" s="7">
+        <v>100</v>
+      </c>
+      <c r="L2" s="7">
+        <v>1</v>
+      </c>
+      <c r="M2" s="7">
+        <v>10</v>
+      </c>
+      <c r="N2" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="D3" s="2">
+        <v>200</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7">
+        <v>50</v>
+      </c>
+      <c r="L3" s="7">
+        <v>1</v>
+      </c>
+      <c r="M3" s="7">
+        <v>10</v>
+      </c>
+      <c r="N3" t="s">
+        <v>144</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4" s="2">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>1</v>
+      </c>
+      <c r="K4" s="7">
+        <v>80</v>
+      </c>
+      <c r="L4" s="7">
+        <v>1</v>
+      </c>
+      <c r="M4" s="7">
+        <v>10</v>
+      </c>
+      <c r="N4" t="s">
+        <v>137</v>
+      </c>
+      <c r="O4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="D5" s="3">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7">
+        <v>1</v>
+      </c>
+      <c r="K5" s="7">
+        <v>80</v>
+      </c>
+      <c r="L5" s="7">
+        <v>1</v>
+      </c>
+      <c r="M5" s="7">
+        <v>10</v>
+      </c>
+      <c r="N5" t="s">
+        <v>137</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D6" s="3">
+        <v>50</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <v>1</v>
+      </c>
+      <c r="K6" s="7">
+        <v>20</v>
+      </c>
+      <c r="L6" s="7">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" t="s">
+        <v>144</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D7" s="3">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="7">
+        <v>20</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="7">
+        <v>10</v>
+      </c>
+      <c r="N7" t="s">
+        <v>144</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D8" s="2">
+        <v>50</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="7">
+        <v>1</v>
+      </c>
+      <c r="K8" s="7">
+        <v>20</v>
+      </c>
+      <c r="L8" s="7">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7">
+        <v>10</v>
+      </c>
+      <c r="N8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D9" s="2">
+        <v>50</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="7">
+        <v>20</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7">
+        <v>10</v>
+      </c>
+      <c r="N9" t="s">
+        <v>144</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D10" s="2">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="7">
+        <v>1</v>
+      </c>
+      <c r="K10" s="7">
+        <v>20</v>
+      </c>
+      <c r="L10" s="7">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7">
+        <v>10</v>
+      </c>
+      <c r="N10" t="s">
+        <v>144</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" s="3">
+        <v>50</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>0</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="7">
+        <v>1</v>
+      </c>
+      <c r="K11" s="7">
+        <v>50</v>
+      </c>
+      <c r="L11" s="7">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7">
+        <v>10</v>
+      </c>
+      <c r="N11" t="s">
+        <v>144</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7">
+        <v>1</v>
+      </c>
+      <c r="K12" s="7">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7">
+        <v>10</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="7">
+        <v>1</v>
+      </c>
+      <c r="K13" s="7">
+        <v>30</v>
+      </c>
+      <c r="L13" s="7">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7">
+        <v>10</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="7">
+        <v>1</v>
+      </c>
+      <c r="K14" s="7">
+        <v>0</v>
+      </c>
+      <c r="L14" s="7">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>144</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D15" s="2">
+        <v>50</v>
+      </c>
+      <c r="E15">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>3</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="7">
+        <v>1</v>
+      </c>
+      <c r="K15" s="7">
+        <v>40</v>
+      </c>
+      <c r="L15" s="7">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7">
+        <v>10</v>
+      </c>
+      <c r="N15" t="s">
+        <v>144</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" s="3">
+        <v>70</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>3</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7">
+        <v>1</v>
+      </c>
+      <c r="K16" s="7">
+        <v>50</v>
+      </c>
+      <c r="L16" s="7">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7">
+        <v>10</v>
+      </c>
+      <c r="N16" t="s">
+        <v>144</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D17" s="3">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="7">
+        <v>1</v>
+      </c>
+      <c r="K17" s="7">
+        <v>80</v>
+      </c>
+      <c r="L17" s="7">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D18" s="3">
+        <v>50</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="7">
+        <v>1</v>
+      </c>
+      <c r="K18" s="7">
+        <v>80</v>
+      </c>
+      <c r="L18" s="7">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>144</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="C20" s="2"/>
+      <c r="D20" s="3"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="C24" s="2"/>
+      <c r="D24" s="3"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="C29" s="8"/>
+      <c r="D29" s="2"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="C30" s="8"/>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+      <formula1>HitType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29">
+      <formula1>SkillType</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N20">
+      <formula1>ReloadType</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C79"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
@@ -4832,7 +9583,7 @@
     <col min="4" max="4" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4843,7 +9594,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -4854,7 +9605,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -4865,7 +9616,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -4876,7 +9627,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>17</v>
       </c>
@@ -4887,7 +9638,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>136</v>
       </c>
@@ -4898,7 +9649,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -4906,7 +9657,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -4914,7 +9665,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -4922,7 +9673,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -4930,7 +9681,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -4938,7 +9689,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>176</v>
       </c>
@@ -4946,7 +9697,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -4954,7 +9705,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -4962,7 +9713,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -4970,7 +9721,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -4978,317 +9729,317 @@
         <v>233</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:1">
       <c r="A19" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:1">
       <c r="A22" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:1">
       <c r="A23" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:1">
       <c r="A26" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:1">
       <c r="A28" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:1">
       <c r="A31" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:1">
       <c r="A33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:1">
       <c r="A35" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:1">
       <c r="A37" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:1">
       <c r="A38" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:1">
       <c r="A39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:1">
       <c r="A40" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:1">
       <c r="A41" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:1">
       <c r="A42" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:1">
       <c r="A43" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:1">
       <c r="A44" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:1">
       <c r="A45" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:1">
       <c r="A46" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:1">
       <c r="A47" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:1">
       <c r="A48" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:1">
       <c r="A49" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:1">
       <c r="A50" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:1">
       <c r="A51" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:1">
       <c r="A52" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:1">
       <c r="A53" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:1">
       <c r="A54" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:1">
       <c r="A55" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:1">
       <c r="A56" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:1">
       <c r="A57" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:1">
       <c r="A58" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:1">
       <c r="A59" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:1">
       <c r="A60" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:1">
       <c r="A61" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:1">
       <c r="A62" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:1">
       <c r="A63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:1">
       <c r="A64" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:1">
       <c r="A65" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:1">
       <c r="A66" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:1">
       <c r="A67" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:1">
       <c r="A68" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:1">
       <c r="A69" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:1">
       <c r="A70" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:1">
       <c r="A71" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:1">
       <c r="A72" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:1">
       <c r="A73" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:1">
       <c r="A74" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:1">
       <c r="A75" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:1">
       <c r="A76" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:1">
       <c r="A77" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:1">
       <c r="A78" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:1">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -5301,14 +10052,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K2" sqref="K2:K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -5327,7 +10078,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5374,7 +10125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -5421,7 +10172,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -5468,7 +10219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -5515,7 +10266,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -5562,7 +10313,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -5609,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -5656,7 +10407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -5703,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -5750,7 +10501,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5797,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -5844,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>29</v>
       </c>
@@ -5891,7 +10642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -5938,7 +10689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -5985,7 +10736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -6032,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -6079,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -6156,14 +10907,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -6182,7 +10933,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6229,7 +10980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -6276,7 +11027,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -6323,7 +11074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -6370,7 +11121,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -6417,7 +11168,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -6464,7 +11215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -6511,7 +11262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -6558,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -6605,7 +11356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -6652,7 +11403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -6699,7 +11450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -6746,7 +11497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>118</v>
       </c>
@@ -6793,7 +11544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -6840,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -6887,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -6934,7 +11685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>46</v>
       </c>
@@ -7017,14 +11768,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -7043,7 +11794,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7090,7 +11841,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -7137,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -7184,7 +11935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -7231,7 +11982,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>135</v>
       </c>
@@ -7278,7 +12029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -7325,7 +12076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -7372,7 +12123,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -7419,7 +12170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -7466,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -7513,7 +12264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -7560,7 +12311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -7607,7 +12358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -7654,7 +12405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -7701,7 +12452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -7748,7 +12499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>23</v>
       </c>
@@ -7795,7 +12546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -7842,7 +12593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -7925,14 +12676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O24"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -7951,7 +12702,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7998,7 +12749,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -8045,7 +12796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -8092,7 +12843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -8139,7 +12890,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -8186,7 +12937,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>47</v>
       </c>
@@ -8233,7 +12984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -8280,7 +13031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -8327,7 +13078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -8374,7 +13125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8421,7 +13172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -8468,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>102</v>
       </c>
@@ -8515,7 +13266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>176</v>
       </c>
@@ -8562,7 +13313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -8609,7 +13360,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -8656,7 +13407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -8703,7 +13454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>23</v>
       </c>
@@ -8750,7 +13501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>177</v>
       </c>
@@ -8797,7 +13548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>66</v>
       </c>
@@ -8844,7 +13595,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -8891,7 +13642,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -8938,7 +13689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>32</v>
       </c>
@@ -8985,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -9032,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -9121,14 +13872,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -9147,7 +13898,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9194,7 +13945,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -9241,7 +13992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -9288,7 +14039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -9335,7 +14086,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -9382,7 +14133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -9429,7 +14180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -9476,7 +14227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -9523,7 +14274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>102</v>
       </c>
@@ -9570,7 +14321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>176</v>
       </c>
@@ -9617,7 +14368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -9664,7 +14415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -9711,7 +14462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -9758,7 +14509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -9805,7 +14556,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -9852,7 +14603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -9899,7 +14650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -9946,7 +14697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -9993,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="C19" s="2"/>
       <c r="D19" s="3"/>
       <c r="F19" s="2"/>
@@ -10005,7 +14756,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
       <c r="F20" s="2"/>
@@ -10017,7 +14768,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="F21" s="5"/>
@@ -10029,7 +14780,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="5"/>
@@ -10041,7 +14792,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -10053,7 +14804,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -10065,7 +14816,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="C25" s="2"/>
     </row>
   </sheetData>
@@ -10110,14 +14861,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O26"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -10136,7 +14887,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10183,7 +14934,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -10230,7 +14981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -10277,7 +15028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -10324,7 +15075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -10371,7 +15122,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -10418,7 +15169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -10465,7 +15216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -10512,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -10559,7 +15310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -10606,7 +15357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>29</v>
       </c>
@@ -10653,7 +15404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -10700,7 +15451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -10747,7 +15498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -10794,7 +15545,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -10841,7 +15592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>32</v>
       </c>
@@ -10888,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="F17" s="7"/>
@@ -10900,7 +15651,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="7"/>
@@ -10912,7 +15663,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="7"/>
@@ -10924,7 +15675,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="F20" s="2"/>
@@ -10936,7 +15687,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
       <c r="F21" s="2"/>
@@ -10948,7 +15699,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="F22" s="5"/>
@@ -10960,7 +15711,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -10972,7 +15723,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -10984,7 +15735,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
@@ -10996,7 +15747,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13">
       <c r="C26" s="2"/>
     </row>
   </sheetData>
@@ -11045,14 +15796,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.75" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
@@ -11072,7 +15823,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11119,7 +15870,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -11166,7 +15917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -11213,7 +15964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -11260,7 +16011,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -11307,7 +16058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -11354,7 +16105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -11401,7 +16152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -11448,7 +16199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -11495,7 +16246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -11542,7 +16293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -11589,7 +16340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -11636,7 +16387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -11683,7 +16434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -11730,7 +16481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -11777,7 +16528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="7"/>
@@ -11789,7 +16540,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -11801,7 +16552,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
       <c r="F18" s="7"/>
@@ -11813,7 +16564,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="7"/>
@@ -11825,7 +16576,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="7"/>
@@ -11837,7 +16588,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="F21" s="7"/>
@@ -11849,7 +16600,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="2"/>
       <c r="D22" s="3"/>
       <c r="F22" s="2"/>
@@ -11861,7 +16612,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="F23" s="2"/>
@@ -11873,7 +16624,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -11885,7 +16636,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
@@ -11897,7 +16648,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -11909,7 +16660,7 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:13">
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="F27" s="5"/>
@@ -11921,7 +16672,7 @@
       <c r="L27" s="7"/>
       <c r="M27" s="7"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:13">
       <c r="C28" s="2"/>
     </row>
   </sheetData>
@@ -11943,14 +16694,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="20.625" customWidth="1"/>
     <col min="2" max="2" width="17.375" customWidth="1"/>
@@ -11969,7 +16720,7 @@
     <col min="16" max="16" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -12016,7 +16767,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -12063,7 +16814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -12110,7 +16861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -12157,7 +16908,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -12204,7 +16955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -12251,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -12298,7 +17049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -12345,7 +17096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>26</v>
       </c>
@@ -12392,7 +17143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>29</v>
       </c>
@@ -12439,7 +17190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -12486,7 +17237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -12533,7 +17284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -12580,7 +17331,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -12627,7 +17378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -12674,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="C16" s="2"/>
       <c r="D16" s="3"/>
       <c r="F16" s="7"/>
@@ -12686,7 +17437,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
     </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:13">
       <c r="C17" s="2"/>
       <c r="D17" s="3"/>
       <c r="F17" s="7"/>
@@ -12698,7 +17449,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="3:13">
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="F18" s="7"/>
@@ -12710,7 +17461,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="7"/>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="3:13">
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="F19" s="7"/>
@@ -12722,7 +17473,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="7"/>
     </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="3:13">
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="F20" s="7"/>
@@ -12734,7 +17485,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="7"/>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="3:13">
       <c r="C21" s="2"/>
       <c r="D21" s="3"/>
       <c r="F21" s="2"/>
@@ -12746,7 +17497,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="7"/>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="3:13">
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="F22" s="2"/>
@@ -12758,7 +17509,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="7"/>
     </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="3:13">
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="F23" s="5"/>
@@ -12770,7 +17521,7 @@
       <c r="L23" s="7"/>
       <c r="M23" s="7"/>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="3:13">
       <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="F24" s="5"/>
@@ -12782,7 +17533,7 @@
       <c r="L24" s="7"/>
       <c r="M24" s="7"/>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="3:13">
       <c r="C25" s="8"/>
       <c r="D25" s="2"/>
       <c r="F25" s="5"/>
@@ -12794,7 +17545,7 @@
       <c r="L25" s="7"/>
       <c r="M25" s="7"/>
     </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="3:13">
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="F26" s="5"/>
@@ -12806,13 +17557,13 @@
       <c r="L26" s="7"/>
       <c r="M26" s="7"/>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="3:13">
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="3:13">
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="3:13">
       <c r="C29" s="2"/>
     </row>
   </sheetData>
